--- a/Racecard_20250216_8.xlsx
+++ b/Racecard_20250216_8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="373">
   <si>
     <t>日期</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>上次總場次</t>
+  </si>
+  <si>
+    <t>上次日期</t>
+  </si>
+  <si>
+    <t>上次班次</t>
   </si>
   <si>
     <t>上次名次</t>
@@ -810,6 +816,33 @@
   </si>
   <si>
     <t>PPG</t>
+  </si>
+  <si>
+    <t>2025/01/26</t>
+  </si>
+  <si>
+    <t>2024/10/20</t>
+  </si>
+  <si>
+    <t>2025/01/31</t>
+  </si>
+  <si>
+    <t>2024/07/14</t>
+  </si>
+  <si>
+    <t>2024/11/09</t>
+  </si>
+  <si>
+    <t>2024/11/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第二班 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">四歲 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">第三班 </t>
   </si>
   <si>
     <t>艾道拿</t>
@@ -1489,13 +1522,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CM15"/>
+  <dimension ref="A1:CO15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:93">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1769,25 +1802,31 @@
       <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:91">
+    <row r="2" spans="1:93">
       <c r="A2" s="2">
         <v>45704</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>1600</v>
@@ -1796,237 +1835,243 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L2">
         <v>135</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O2">
         <v>13</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R2">
         <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="W2">
         <v>7</v>
       </c>
       <c r="Y2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AA2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AD2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AE2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AH2">
         <v>2024378</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK2">
         <v>5</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK2">
+      <c r="AL2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM2">
         <v>33</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>135</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>0</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>6</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <v>7</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>25.03</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>47.64</v>
       </c>
-      <c r="AR2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>278</v>
-      </c>
-      <c r="AW2">
+      <c r="AT2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AY2">
         <v>25.43</v>
       </c>
-      <c r="AX2">
+      <c r="AZ2">
         <v>22.25</v>
       </c>
-      <c r="AY2">
+      <c r="BA2">
         <v>23.45</v>
       </c>
-      <c r="AZ2">
+      <c r="BB2">
         <v>23.9</v>
       </c>
-      <c r="BC2">
+      <c r="BE2">
         <v>47.35</v>
       </c>
-      <c r="BD2">
+      <c r="BF2">
         <v>0.147</v>
       </c>
-      <c r="BE2">
+      <c r="BG2">
         <v>47.497</v>
       </c>
-      <c r="BF2" t="s">
-        <v>290</v>
-      </c>
-      <c r="BG2">
+      <c r="BH2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BI2">
         <v>2024099</v>
       </c>
-      <c r="BH2">
+      <c r="BJ2">
         <v>7</v>
       </c>
-      <c r="BI2" t="s">
-        <v>265</v>
-      </c>
-      <c r="BJ2">
+      <c r="BK2" t="s">
+        <v>276</v>
+      </c>
+      <c r="BL2">
         <v>21</v>
       </c>
-      <c r="BK2">
+      <c r="BM2">
         <v>115</v>
       </c>
-      <c r="BL2">
+      <c r="BN2">
         <v>20</v>
       </c>
-      <c r="BM2">
+      <c r="BO2">
         <v>5</v>
       </c>
-      <c r="BN2">
+      <c r="BP2">
         <v>8</v>
       </c>
-      <c r="BO2">
+      <c r="BQ2">
         <v>25.25</v>
       </c>
-      <c r="BP2">
+      <c r="BR2">
         <v>48.48</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>304</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>310</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>316</v>
-      </c>
-      <c r="BV2">
+      <c r="BS2" t="s">
+        <v>315</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>321</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>327</v>
+      </c>
+      <c r="BX2">
         <v>25.53</v>
       </c>
-      <c r="BW2">
+      <c r="BY2">
         <v>23.31</v>
       </c>
-      <c r="BX2">
+      <c r="BZ2">
         <v>22.58</v>
       </c>
-      <c r="BY2">
+      <c r="CA2">
         <v>22.49</v>
       </c>
-      <c r="CB2">
+      <c r="CD2">
         <v>45.07</v>
       </c>
-      <c r="CC2">
+      <c r="CE2">
         <v>0.468</v>
       </c>
-      <c r="CD2">
+      <c r="CF2">
         <v>45.538</v>
       </c>
-      <c r="CE2" t="s">
-        <v>325</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>109</v>
-      </c>
       <c r="CG2" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="CH2" t="s">
-        <v>333</v>
+        <v>111</v>
       </c>
       <c r="CI2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="CJ2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="CK2" t="s">
-        <v>298</v>
-      </c>
-      <c r="CL2">
+        <v>336</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>357</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN2">
         <v>95.18000000000001</v>
       </c>
-      <c r="CM2">
+      <c r="CO2">
         <v>94.78</v>
       </c>
     </row>
-    <row r="3" spans="1:91">
+    <row r="3" spans="1:93">
       <c r="A3" s="2">
         <v>45704</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>1600</v>
@@ -2035,237 +2080,243 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L3">
         <v>130</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O3">
         <v>9</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="R3">
         <v>93</v>
       </c>
       <c r="S3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W3">
         <v>5</v>
       </c>
       <c r="Y3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AD3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AE3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH3">
         <v>2024378</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK3">
         <v>1</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK3">
+      <c r="AL3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM3">
         <v>1.4</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>121</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>9</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>1</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>8</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>25.03</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>47.64</v>
       </c>
-      <c r="AR3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AW3">
+      <c r="AT3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY3">
         <v>25.39</v>
       </c>
-      <c r="AX3">
+      <c r="AZ3">
         <v>22.65</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>23.33</v>
       </c>
-      <c r="AZ3">
+      <c r="BB3">
         <v>23.27</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>46.6</v>
       </c>
-      <c r="BD3">
+      <c r="BF3">
         <v>0.303</v>
       </c>
-      <c r="BE3">
+      <c r="BG3">
         <v>46.903</v>
       </c>
-      <c r="BF3" t="s">
-        <v>291</v>
-      </c>
-      <c r="BG3">
+      <c r="BH3" t="s">
+        <v>302</v>
+      </c>
+      <c r="BI3">
         <v>2024208</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3">
         <v>3</v>
       </c>
-      <c r="BI3" t="s">
-        <v>301</v>
-      </c>
-      <c r="BJ3">
+      <c r="BK3" t="s">
+        <v>312</v>
+      </c>
+      <c r="BL3">
         <v>7</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>116</v>
       </c>
-      <c r="BL3">
+      <c r="BN3">
         <v>14</v>
       </c>
-      <c r="BM3">
+      <c r="BO3">
         <v>10</v>
       </c>
-      <c r="BN3">
+      <c r="BP3">
         <v>-1</v>
       </c>
-      <c r="BO3">
+      <c r="BQ3">
         <v>24.33</v>
       </c>
-      <c r="BP3">
+      <c r="BR3">
         <v>47.23</v>
       </c>
-      <c r="BQ3" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>277</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV3">
+      <c r="BS3" t="s">
+        <v>282</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>288</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>284</v>
+      </c>
+      <c r="BX3">
         <v>25.05</v>
       </c>
-      <c r="BW3">
+      <c r="BY3">
         <v>22.9</v>
       </c>
-      <c r="BX3">
+      <c r="BZ3">
         <v>22.93</v>
       </c>
-      <c r="BY3">
+      <c r="CA3">
         <v>22.88</v>
       </c>
-      <c r="CB3">
+      <c r="CD3">
         <v>45.81</v>
       </c>
-      <c r="CC3">
+      <c r="CE3">
         <v>0.189</v>
       </c>
-      <c r="CD3">
+      <c r="CF3">
         <v>45.999</v>
       </c>
-      <c r="CE3" t="s">
+      <c r="CG3" t="s">
+        <v>337</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>112</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>302</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>345</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>337</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>358</v>
+      </c>
+      <c r="CM3" t="s">
         <v>326</v>
       </c>
-      <c r="CF3" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>291</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>334</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>326</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>347</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>315</v>
-      </c>
-      <c r="CL3">
+      <c r="CN3">
         <v>94.94</v>
       </c>
-      <c r="CM3">
+      <c r="CO3">
         <v>94.44</v>
       </c>
     </row>
-    <row r="4" spans="1:91">
+    <row r="4" spans="1:93">
       <c r="A4" s="2">
         <v>45704</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>1600</v>
@@ -2274,237 +2325,243 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4">
         <v>129</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O4">
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="R4">
         <v>92</v>
       </c>
       <c r="S4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="W4">
         <v>8</v>
       </c>
       <c r="Y4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AA4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AC4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AD4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AE4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AH4">
         <v>2024115</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK4">
         <v>4</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK4">
+      <c r="AL4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM4">
         <v>78</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>132</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>-3</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>5</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>7</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>24.19</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>46.75</v>
       </c>
-      <c r="AR4" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>279</v>
-      </c>
-      <c r="AW4">
+      <c r="AT4" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AY4">
         <v>24.91</v>
       </c>
-      <c r="AX4">
+      <c r="AZ4">
         <v>22.8</v>
       </c>
-      <c r="AY4">
+      <c r="BA4">
         <v>23.22</v>
       </c>
-      <c r="AZ4">
+      <c r="BB4">
         <v>23.12</v>
       </c>
-      <c r="BC4">
+      <c r="BE4">
         <v>46.34</v>
       </c>
-      <c r="BD4">
+      <c r="BF4">
         <v>0.102</v>
       </c>
-      <c r="BE4">
+      <c r="BG4">
         <v>46.442</v>
       </c>
-      <c r="BF4" t="s">
-        <v>292</v>
-      </c>
-      <c r="BG4">
+      <c r="BH4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BI4">
         <v>2023828</v>
       </c>
-      <c r="BH4">
+      <c r="BJ4">
         <v>7</v>
       </c>
-      <c r="BI4" t="s">
-        <v>302</v>
-      </c>
-      <c r="BJ4">
+      <c r="BK4" t="s">
+        <v>313</v>
+      </c>
+      <c r="BL4">
         <v>6.8</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>122</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>7</v>
       </c>
-      <c r="BM4">
+      <c r="BO4">
         <v>1</v>
       </c>
-      <c r="BN4">
+      <c r="BP4">
         <v>11</v>
       </c>
-      <c r="BO4">
+      <c r="BQ4">
         <v>25.02</v>
       </c>
-      <c r="BP4">
+      <c r="BR4">
         <v>47.61</v>
       </c>
-      <c r="BQ4" t="s">
-        <v>305</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>311</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>317</v>
-      </c>
-      <c r="BV4">
+      <c r="BS4" t="s">
+        <v>316</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>322</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>328</v>
+      </c>
+      <c r="BX4">
         <v>25.3</v>
       </c>
-      <c r="BW4">
+      <c r="BY4">
         <v>22.59</v>
       </c>
-      <c r="BX4">
+      <c r="BZ4">
         <v>22.86</v>
       </c>
-      <c r="BY4">
+      <c r="CA4">
         <v>24.16</v>
       </c>
-      <c r="CB4">
+      <c r="CD4">
         <v>47.02</v>
       </c>
-      <c r="CC4">
+      <c r="CE4">
         <v>0.336</v>
       </c>
-      <c r="CD4">
+      <c r="CF4">
         <v>47.356</v>
       </c>
-      <c r="CE4" t="s">
-        <v>327</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>111</v>
-      </c>
       <c r="CG4" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="CH4" t="s">
-        <v>335</v>
+        <v>113</v>
       </c>
       <c r="CI4" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="CJ4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="CK4" t="s">
-        <v>356</v>
-      </c>
-      <c r="CL4">
+        <v>338</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>359</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>367</v>
+      </c>
+      <c r="CN4">
         <v>94.15000000000001</v>
       </c>
-      <c r="CM4">
+      <c r="CO4">
         <v>94.7</v>
       </c>
     </row>
-    <row r="5" spans="1:91">
+    <row r="5" spans="1:93">
       <c r="A5" s="2">
         <v>45704</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>1600</v>
@@ -2513,237 +2570,243 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L5">
         <v>125</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R5">
         <v>88</v>
       </c>
       <c r="S5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W5">
         <v>6</v>
       </c>
       <c r="Y5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AA5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AD5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AE5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH5">
         <v>2024378</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK5">
         <v>3</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK5">
+      <c r="AL5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM5">
         <v>7</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>123</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>2</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>2</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>1</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>25.03</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>47.64</v>
       </c>
-      <c r="AR5" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>280</v>
-      </c>
-      <c r="AW5">
+      <c r="AT5" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY5">
         <v>25.39</v>
       </c>
-      <c r="AX5">
+      <c r="AZ5">
         <v>22.85</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>23.33</v>
       </c>
-      <c r="AZ5">
+      <c r="BB5">
         <v>23.32</v>
       </c>
-      <c r="BC5">
+      <c r="BE5">
         <v>46.65</v>
       </c>
-      <c r="BD5">
+      <c r="BF5">
         <v>0.051</v>
       </c>
-      <c r="BE5">
+      <c r="BG5">
         <v>46.701</v>
       </c>
-      <c r="BF5" t="s">
-        <v>291</v>
-      </c>
-      <c r="BG5">
+      <c r="BH5" t="s">
+        <v>302</v>
+      </c>
+      <c r="BI5">
         <v>2024208</v>
       </c>
-      <c r="BH5">
+      <c r="BJ5">
         <v>7</v>
       </c>
-      <c r="BI5" t="s">
-        <v>259</v>
-      </c>
-      <c r="BJ5">
+      <c r="BK5" t="s">
+        <v>270</v>
+      </c>
+      <c r="BL5">
         <v>8.300000000000001</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
         <v>119</v>
       </c>
-      <c r="BL5">
+      <c r="BN5">
         <v>6</v>
       </c>
-      <c r="BM5">
+      <c r="BO5">
         <v>13</v>
       </c>
-      <c r="BN5">
+      <c r="BP5">
         <v>-10</v>
       </c>
-      <c r="BO5">
+      <c r="BQ5">
         <v>24.33</v>
       </c>
-      <c r="BP5">
+      <c r="BR5">
         <v>47.23</v>
       </c>
-      <c r="BQ5" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>277</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>318</v>
-      </c>
-      <c r="BV5">
+      <c r="BS5" t="s">
+        <v>282</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>288</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>329</v>
+      </c>
+      <c r="BX5">
         <v>25.49</v>
       </c>
-      <c r="BW5">
+      <c r="BY5">
         <v>23.02</v>
       </c>
-      <c r="BX5">
+      <c r="BZ5">
         <v>22.77</v>
       </c>
-      <c r="BY5">
+      <c r="CA5">
         <v>22.71</v>
       </c>
-      <c r="CB5">
+      <c r="CD5">
         <v>45.48</v>
       </c>
-      <c r="CC5">
+      <c r="CE5">
         <v>-0.12</v>
       </c>
-      <c r="CD5">
+      <c r="CF5">
         <v>45.36</v>
       </c>
-      <c r="CE5" t="s">
-        <v>328</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>112</v>
-      </c>
       <c r="CG5" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="CH5" t="s">
-        <v>336</v>
+        <v>114</v>
       </c>
       <c r="CI5" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="CJ5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="CK5" t="s">
-        <v>321</v>
-      </c>
-      <c r="CL5">
+        <v>339</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>360</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>332</v>
+      </c>
+      <c r="CN5">
         <v>94.94</v>
       </c>
-      <c r="CM5">
+      <c r="CO5">
         <v>94.41</v>
       </c>
     </row>
-    <row r="6" spans="1:91">
+    <row r="6" spans="1:93">
       <c r="A6" s="2">
         <v>45704</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G6">
         <v>1600</v>
@@ -2752,237 +2815,243 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L6">
         <v>125</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R6">
         <v>88</v>
       </c>
       <c r="S6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="W6">
         <v>6</v>
       </c>
       <c r="Y6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AA6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AD6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AE6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH6">
         <v>2024378</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK6">
         <v>6</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK6">
+      <c r="AL6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM6">
         <v>44</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>124</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>1</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>8</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>-7</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>25.03</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>47.64</v>
       </c>
-      <c r="AR6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AW6">
+      <c r="AT6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AY6">
         <v>25.15</v>
       </c>
-      <c r="AX6">
+      <c r="AZ6">
         <v>22.69</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>23.49</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>23.74</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>47.23</v>
       </c>
-      <c r="BD6">
+      <c r="BF6">
         <v>-0.132</v>
       </c>
-      <c r="BE6">
+      <c r="BG6">
         <v>47.098</v>
       </c>
-      <c r="BF6" t="s">
-        <v>291</v>
-      </c>
-      <c r="BG6">
+      <c r="BH6" t="s">
+        <v>302</v>
+      </c>
+      <c r="BI6">
         <v>2023203</v>
       </c>
-      <c r="BH6">
+      <c r="BJ6">
         <v>2</v>
       </c>
-      <c r="BI6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BJ6">
+      <c r="BK6" t="s">
+        <v>271</v>
+      </c>
+      <c r="BL6">
         <v>21</v>
       </c>
-      <c r="BK6">
+      <c r="BM6">
         <v>134</v>
       </c>
-      <c r="BL6">
+      <c r="BN6">
         <v>-9</v>
       </c>
-      <c r="BM6">
+      <c r="BO6">
         <v>6</v>
       </c>
-      <c r="BN6">
+      <c r="BP6">
         <v>-5</v>
       </c>
-      <c r="BO6">
+      <c r="BQ6">
         <v>25</v>
       </c>
-      <c r="BP6">
+      <c r="BR6">
         <v>48.67</v>
       </c>
-      <c r="BQ6" t="s">
-        <v>306</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>312</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>319</v>
-      </c>
-      <c r="BV6">
+      <c r="BS6" t="s">
+        <v>317</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>323</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BX6">
         <v>25.24</v>
       </c>
-      <c r="BW6">
+      <c r="BY6">
         <v>23.71</v>
       </c>
-      <c r="BX6">
+      <c r="BZ6">
         <v>24.1</v>
       </c>
-      <c r="BY6">
+      <c r="CA6">
         <v>22.59</v>
       </c>
-      <c r="CB6">
+      <c r="CD6">
         <v>46.69</v>
       </c>
-      <c r="CC6">
+      <c r="CE6">
         <v>-0.24</v>
       </c>
-      <c r="CD6">
+      <c r="CF6">
         <v>46.45</v>
       </c>
-      <c r="CE6" t="s">
-        <v>329</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>113</v>
-      </c>
       <c r="CG6" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="CH6" t="s">
-        <v>337</v>
+        <v>115</v>
       </c>
       <c r="CI6" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="CJ6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="CK6" t="s">
-        <v>357</v>
-      </c>
-      <c r="CL6">
+        <v>340</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>361</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>368</v>
+      </c>
+      <c r="CN6">
         <v>94.94</v>
       </c>
-      <c r="CM6">
+      <c r="CO6">
         <v>95.17</v>
       </c>
     </row>
-    <row r="7" spans="1:91">
+    <row r="7" spans="1:93">
       <c r="A7" s="2">
         <v>45704</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>1600</v>
@@ -2991,237 +3060,243 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7">
         <v>124</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R7">
         <v>87</v>
       </c>
       <c r="S7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W7">
         <v>7</v>
       </c>
       <c r="Y7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AA7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AB7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AC7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AD7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AE7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AF7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AH7">
         <v>2024115</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK7">
         <v>7</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK7">
+      <c r="AL7" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM7">
         <v>71</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>133</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>-9</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>6</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>-1</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>24.19</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>46.75</v>
       </c>
-      <c r="AR7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>282</v>
-      </c>
-      <c r="AW7">
+      <c r="AT7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AY7">
         <v>24.83</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>22.68</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>23.26</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>23.6</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>46.86</v>
       </c>
-      <c r="BD7">
+      <c r="BF7">
         <v>-0.156</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>46.704</v>
       </c>
-      <c r="BF7" t="s">
-        <v>293</v>
-      </c>
-      <c r="BG7">
+      <c r="BH7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI7">
         <v>2023828</v>
       </c>
-      <c r="BH7">
+      <c r="BJ7">
         <v>10</v>
       </c>
-      <c r="BI7" t="s">
-        <v>261</v>
-      </c>
-      <c r="BJ7">
+      <c r="BK7" t="s">
+        <v>272</v>
+      </c>
+      <c r="BL7">
         <v>54</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>128</v>
       </c>
-      <c r="BL7">
+      <c r="BN7">
         <v>-4</v>
       </c>
-      <c r="BM7">
+      <c r="BO7">
         <v>8</v>
       </c>
-      <c r="BN7">
+      <c r="BP7">
         <v>-3</v>
       </c>
-      <c r="BO7">
+      <c r="BQ7">
         <v>25.02</v>
       </c>
-      <c r="BP7">
+      <c r="BR7">
         <v>47.61</v>
       </c>
-      <c r="BQ7" t="s">
-        <v>305</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>311</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>320</v>
-      </c>
-      <c r="BV7">
+      <c r="BS7" t="s">
+        <v>316</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>322</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>331</v>
+      </c>
+      <c r="BX7">
         <v>25.54</v>
       </c>
-      <c r="BW7">
+      <c r="BY7">
         <v>22.47</v>
       </c>
-      <c r="BX7">
+      <c r="BZ7">
         <v>22.98</v>
       </c>
-      <c r="BY7">
+      <c r="CA7">
         <v>24.39</v>
       </c>
-      <c r="CB7">
+      <c r="CD7">
         <v>47.37</v>
       </c>
-      <c r="CC7">
+      <c r="CE7">
         <v>-0.123</v>
       </c>
-      <c r="CD7">
+      <c r="CF7">
         <v>47.247</v>
       </c>
-      <c r="CE7" t="s">
-        <v>330</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>114</v>
-      </c>
       <c r="CG7" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="CH7" t="s">
-        <v>338</v>
+        <v>116</v>
       </c>
       <c r="CI7" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="CJ7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="CK7" t="s">
-        <v>358</v>
-      </c>
-      <c r="CL7">
+        <v>341</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>362</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>369</v>
+      </c>
+      <c r="CN7">
         <v>94.21000000000001</v>
       </c>
-      <c r="CM7">
+      <c r="CO7">
         <v>94.72999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:91">
+    <row r="8" spans="1:93">
       <c r="A8" s="2">
         <v>45704</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>1600</v>
@@ -3230,84 +3305,84 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L8">
         <v>123</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O8">
         <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R8">
         <v>86</v>
       </c>
       <c r="S8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="U8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="W8">
         <v>4</v>
       </c>
       <c r="Y8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AA8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AE8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG8" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>115</v>
+        <v>256</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:91">
+    <row r="9" spans="1:93">
       <c r="A9" s="2">
         <v>45704</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G9">
         <v>1600</v>
@@ -3316,237 +3391,243 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L9">
         <v>122</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O9">
         <v>14</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R9">
         <v>85</v>
       </c>
       <c r="S9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="U9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W9">
         <v>4</v>
       </c>
       <c r="Y9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AA9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AC9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AD9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AE9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AH9">
         <v>2024394</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK9">
         <v>5</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK9">
+      <c r="AL9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM9">
         <v>10</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>126</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>-4</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>13</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <v>1</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>24.17</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>47.32</v>
       </c>
-      <c r="AR9" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>274</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>283</v>
-      </c>
-      <c r="AW9">
+      <c r="AT9" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AY9">
         <v>25.73</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
         <v>23.07</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>23.18</v>
       </c>
-      <c r="AZ9">
+      <c r="BB9">
         <v>22.26</v>
       </c>
-      <c r="BC9">
+      <c r="BE9">
         <v>45.44</v>
       </c>
-      <c r="BD9">
+      <c r="BF9">
         <v>-0.03899999999999999</v>
       </c>
-      <c r="BE9">
+      <c r="BG9">
         <v>45.401</v>
       </c>
-      <c r="BF9" t="s">
-        <v>294</v>
-      </c>
-      <c r="BG9">
+      <c r="BH9" t="s">
+        <v>305</v>
+      </c>
+      <c r="BI9">
         <v>2024345</v>
       </c>
-      <c r="BH9">
+      <c r="BJ9">
         <v>6</v>
       </c>
-      <c r="BI9" t="s">
-        <v>262</v>
-      </c>
-      <c r="BJ9">
+      <c r="BK9" t="s">
+        <v>273</v>
+      </c>
+      <c r="BL9">
         <v>5.9</v>
       </c>
-      <c r="BK9">
+      <c r="BM9">
         <v>135</v>
       </c>
-      <c r="BL9">
+      <c r="BN9">
         <v>-13</v>
       </c>
-      <c r="BM9">
+      <c r="BO9">
         <v>8</v>
       </c>
-      <c r="BN9">
+      <c r="BP9">
         <v>6</v>
       </c>
-      <c r="BO9">
+      <c r="BQ9">
         <v>24.66</v>
       </c>
-      <c r="BP9">
+      <c r="BR9">
         <v>47.84</v>
       </c>
-      <c r="BQ9" t="s">
-        <v>307</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>313</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>321</v>
-      </c>
-      <c r="BV9">
+      <c r="BS9" t="s">
+        <v>318</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>324</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX9">
         <v>25.54</v>
       </c>
-      <c r="BW9">
+      <c r="BY9">
         <v>22.98</v>
       </c>
-      <c r="BX9">
+      <c r="BZ9">
         <v>22.95</v>
       </c>
-      <c r="BY9">
+      <c r="CA9">
         <v>22.94</v>
       </c>
-      <c r="CB9">
+      <c r="CD9">
         <v>45.89</v>
       </c>
-      <c r="CC9">
+      <c r="CE9">
         <v>-0.06900000000000001</v>
       </c>
-      <c r="CD9">
+      <c r="CF9">
         <v>45.821</v>
       </c>
-      <c r="CE9" t="s">
-        <v>300</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>116</v>
-      </c>
       <c r="CG9" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="CH9" t="s">
-        <v>339</v>
+        <v>118</v>
       </c>
       <c r="CI9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="CJ9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="CK9" t="s">
-        <v>359</v>
-      </c>
-      <c r="CL9">
+        <v>311</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>370</v>
+      </c>
+      <c r="CN9">
         <v>94.2</v>
       </c>
-      <c r="CM9">
+      <c r="CO9">
         <v>94.27000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:91">
+    <row r="10" spans="1:93">
       <c r="A10" s="2">
         <v>45704</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G10">
         <v>1600</v>
@@ -3555,168 +3636,174 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L10">
         <v>122</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O10">
         <v>11</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R10">
         <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W10">
         <v>6</v>
       </c>
       <c r="Y10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AA10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AC10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AD10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AE10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AH10">
         <v>2023830</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK10">
         <v>12</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>262</v>
-      </c>
-      <c r="AK10">
+      <c r="AL10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM10">
         <v>27</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>132</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>-10</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>11</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>0</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>24.39</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>47.26</v>
       </c>
-      <c r="AR10" t="s">
-        <v>269</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>284</v>
-      </c>
-      <c r="AW10">
+      <c r="AT10" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>295</v>
+      </c>
+      <c r="AY10">
         <v>24.71</v>
       </c>
-      <c r="AX10">
+      <c r="AZ10">
         <v>22.87</v>
       </c>
-      <c r="AY10">
+      <c r="BA10">
         <v>23.92</v>
       </c>
-      <c r="AZ10">
+      <c r="BB10">
         <v>25.45</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
         <v>49.37</v>
       </c>
-      <c r="BD10">
+      <c r="BF10">
         <v>-0.15</v>
       </c>
-      <c r="BE10">
+      <c r="BG10">
         <v>49.22</v>
       </c>
-      <c r="BF10" t="s">
-        <v>295</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>295</v>
+      <c r="BH10" t="s">
+        <v>306</v>
       </c>
       <c r="CH10" t="s">
-        <v>340</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>295</v>
-      </c>
-      <c r="CL10">
+        <v>119</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>306</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>351</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>306</v>
+      </c>
+      <c r="CN10">
         <v>96.8</v>
       </c>
-      <c r="CM10">
+      <c r="CO10">
         <v>96.8</v>
       </c>
     </row>
-    <row r="11" spans="1:91">
+    <row r="11" spans="1:93">
       <c r="A11" s="2">
         <v>45704</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11">
         <v>1600</v>
@@ -3725,237 +3812,243 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11">
         <v>122</v>
       </c>
       <c r="M11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O11">
         <v>7</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R11">
         <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="W11">
         <v>5</v>
       </c>
       <c r="Y11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AA11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AD11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AE11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AH11">
         <v>2024378</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK11">
         <v>7</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>261</v>
-      </c>
-      <c r="AK11">
+      <c r="AL11" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM11">
         <v>4.1</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>120</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>2</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>3</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>4</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>25.03</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>47.64</v>
       </c>
-      <c r="AR11" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AW11">
+      <c r="AT11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AY11">
         <v>25.03</v>
       </c>
-      <c r="AX11">
+      <c r="AZ11">
         <v>22.61</v>
       </c>
-      <c r="AY11">
+      <c r="BA11">
         <v>23.45</v>
       </c>
-      <c r="AZ11">
+      <c r="BB11">
         <v>24.07</v>
       </c>
-      <c r="BC11">
+      <c r="BE11">
         <v>47.52</v>
       </c>
-      <c r="BD11">
+      <c r="BF11">
         <v>0.114</v>
       </c>
-      <c r="BE11">
+      <c r="BG11">
         <v>47.634</v>
       </c>
-      <c r="BF11" t="s">
-        <v>296</v>
-      </c>
-      <c r="BG11">
+      <c r="BH11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BI11">
         <v>2024317</v>
       </c>
-      <c r="BH11">
+      <c r="BJ11">
         <v>9</v>
       </c>
-      <c r="BI11" t="s">
-        <v>257</v>
-      </c>
-      <c r="BJ11">
+      <c r="BK11" t="s">
+        <v>268</v>
+      </c>
+      <c r="BL11">
         <v>5.6</v>
       </c>
-      <c r="BK11">
+      <c r="BM11">
         <v>135</v>
       </c>
-      <c r="BL11">
+      <c r="BN11">
         <v>-13</v>
       </c>
-      <c r="BM11">
+      <c r="BO11">
         <v>11</v>
       </c>
-      <c r="BN11">
+      <c r="BP11">
         <v>-4</v>
       </c>
-      <c r="BO11">
+      <c r="BQ11">
         <v>24.67</v>
       </c>
-      <c r="BP11">
+      <c r="BR11">
         <v>48.32</v>
       </c>
-      <c r="BQ11" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>314</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>322</v>
-      </c>
-      <c r="BV11">
+      <c r="BS11" t="s">
+        <v>319</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>325</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>333</v>
+      </c>
+      <c r="BX11">
         <v>24.71</v>
       </c>
-      <c r="BW11">
+      <c r="BY11">
         <v>23.65</v>
       </c>
-      <c r="BX11">
+      <c r="BZ11">
         <v>23.56</v>
       </c>
-      <c r="BY11">
+      <c r="CA11">
         <v>23.48</v>
       </c>
-      <c r="CB11">
+      <c r="CD11">
         <v>47.04</v>
       </c>
-      <c r="CC11">
+      <c r="CE11">
         <v>-0.279</v>
       </c>
-      <c r="CD11">
+      <c r="CF11">
         <v>46.761</v>
       </c>
-      <c r="CE11" t="s">
-        <v>331</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>118</v>
-      </c>
       <c r="CG11" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="CH11" t="s">
-        <v>341</v>
+        <v>120</v>
       </c>
       <c r="CI11" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="CJ11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="CK11" t="s">
-        <v>360</v>
-      </c>
-      <c r="CL11">
+        <v>342</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>371</v>
+      </c>
+      <c r="CN11">
         <v>95.27000000000001</v>
       </c>
-      <c r="CM11">
+      <c r="CO11">
         <v>95.2</v>
       </c>
     </row>
-    <row r="12" spans="1:91">
+    <row r="12" spans="1:93">
       <c r="A12" s="2">
         <v>45704</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G12">
         <v>1600</v>
@@ -3964,165 +4057,171 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L12">
         <v>121</v>
       </c>
       <c r="M12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O12">
         <v>10</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R12">
         <v>84</v>
       </c>
       <c r="S12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="W12">
         <v>4</v>
       </c>
       <c r="Y12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AA12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AD12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AE12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AH12">
         <v>2024394</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK12">
         <v>14</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AK12">
+      <c r="AL12" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM12">
         <v>10</v>
       </c>
-      <c r="AL12">
+      <c r="AN12">
         <v>126</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>-5</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>9</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>1</v>
       </c>
-      <c r="AP12">
+      <c r="AR12">
         <v>24.17</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>47.32</v>
       </c>
-      <c r="AR12" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>274</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>286</v>
-      </c>
-      <c r="AW12">
+      <c r="AT12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AY12">
         <v>25.37</v>
       </c>
-      <c r="AX12">
+      <c r="AZ12">
         <v>23.11</v>
       </c>
-      <c r="AY12">
+      <c r="BA12">
         <v>23.38</v>
       </c>
-      <c r="AZ12">
+      <c r="BB12">
         <v>23.16</v>
       </c>
-      <c r="BC12">
+      <c r="BE12">
         <v>46.54</v>
       </c>
-      <c r="BD12">
+      <c r="BF12">
         <v>-0.05399999999999999</v>
       </c>
-      <c r="BE12">
+      <c r="BG12">
         <v>46.486</v>
       </c>
-      <c r="BF12" t="s">
-        <v>297</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>119</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>297</v>
+      <c r="BH12" t="s">
+        <v>308</v>
       </c>
       <c r="CH12" t="s">
-        <v>342</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>297</v>
-      </c>
-      <c r="CL12">
+        <v>121</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>308</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>353</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>308</v>
+      </c>
+      <c r="CN12">
         <v>94.97</v>
       </c>
-      <c r="CM12">
+      <c r="CO12">
         <v>94.97</v>
       </c>
     </row>
-    <row r="13" spans="1:91">
+    <row r="13" spans="1:93">
       <c r="A13" s="2">
         <v>45704</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>1600</v>
@@ -4131,237 +4230,243 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L13">
         <v>121</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O13">
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R13">
         <v>84</v>
       </c>
       <c r="S13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="W13">
         <v>5</v>
       </c>
       <c r="Y13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Z13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AA13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AC13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AD13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AE13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AH13">
         <v>2024175</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK13">
         <v>13</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>264</v>
-      </c>
-      <c r="AK13">
+      <c r="AL13" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM13">
         <v>61</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>134</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>-13</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>11</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>-5</v>
       </c>
-      <c r="AP13">
+      <c r="AR13">
         <v>23.96</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>46.38</v>
       </c>
-      <c r="AR13" t="s">
-        <v>270</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>276</v>
-      </c>
-      <c r="AV13" t="s">
+      <c r="AT13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU13" t="s">
         <v>287</v>
       </c>
-      <c r="AW13">
+      <c r="AX13" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY13">
         <v>24.8</v>
       </c>
-      <c r="AX13">
+      <c r="AZ13">
         <v>22.26</v>
       </c>
-      <c r="AY13">
+      <c r="BA13">
         <v>23.42</v>
       </c>
-      <c r="AZ13">
+      <c r="BB13">
         <v>24.6</v>
       </c>
-      <c r="BC13">
+      <c r="BE13">
         <v>48.02</v>
       </c>
-      <c r="BD13">
+      <c r="BF13">
         <v>-0.3</v>
       </c>
-      <c r="BE13">
+      <c r="BG13">
         <v>47.72000000000001</v>
       </c>
-      <c r="BF13" t="s">
-        <v>298</v>
-      </c>
-      <c r="BG13">
+      <c r="BH13" t="s">
+        <v>309</v>
+      </c>
+      <c r="BI13">
         <v>2023394</v>
       </c>
-      <c r="BH13">
+      <c r="BJ13">
         <v>4</v>
       </c>
-      <c r="BI13" t="s">
-        <v>263</v>
-      </c>
-      <c r="BJ13">
+      <c r="BK13" t="s">
+        <v>274</v>
+      </c>
+      <c r="BL13">
         <v>22</v>
       </c>
-      <c r="BK13">
+      <c r="BM13">
         <v>126</v>
       </c>
-      <c r="BL13">
+      <c r="BN13">
         <v>-5</v>
       </c>
-      <c r="BM13">
+      <c r="BO13">
         <v>1</v>
       </c>
-      <c r="BN13">
+      <c r="BP13">
         <v>5</v>
       </c>
-      <c r="BO13">
+      <c r="BQ13">
         <v>24.35</v>
       </c>
-      <c r="BP13">
+      <c r="BR13">
         <v>48.01</v>
       </c>
-      <c r="BQ13" t="s">
+      <c r="BS13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>326</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>334</v>
+      </c>
+      <c r="BX13">
+        <v>24.83</v>
+      </c>
+      <c r="BY13">
+        <v>23.66</v>
+      </c>
+      <c r="BZ13">
+        <v>22.55</v>
+      </c>
+      <c r="CA13">
+        <v>23.84</v>
+      </c>
+      <c r="CD13">
+        <v>46.39</v>
+      </c>
+      <c r="CE13">
+        <v>0.03000000000000001</v>
+      </c>
+      <c r="CF13">
+        <v>46.42</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>328</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>122</v>
+      </c>
+      <c r="CI13" t="s">
         <v>309</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>315</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>323</v>
-      </c>
-      <c r="BV13">
-        <v>24.83</v>
-      </c>
-      <c r="BW13">
-        <v>23.66</v>
-      </c>
-      <c r="BX13">
-        <v>22.55</v>
-      </c>
-      <c r="BY13">
-        <v>23.84</v>
-      </c>
-      <c r="CB13">
-        <v>46.39</v>
-      </c>
-      <c r="CC13">
-        <v>0.03000000000000001</v>
-      </c>
-      <c r="CD13">
-        <v>46.42</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>317</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>120</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>298</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>343</v>
-      </c>
-      <c r="CI13" t="s">
-        <v>317</v>
       </c>
       <c r="CJ13" t="s">
         <v>354</v>
       </c>
       <c r="CK13" t="s">
-        <v>361</v>
-      </c>
-      <c r="CL13">
+        <v>328</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>365</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>372</v>
+      </c>
+      <c r="CN13">
         <v>94.78</v>
       </c>
-      <c r="CM13">
+      <c r="CO13">
         <v>94.84</v>
       </c>
     </row>
-    <row r="14" spans="1:91">
+    <row r="14" spans="1:93">
       <c r="A14" s="2">
         <v>45704</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14">
         <v>1600</v>
@@ -4370,237 +4475,243 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14">
         <v>119</v>
       </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O14">
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R14">
         <v>82</v>
       </c>
       <c r="S14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W14">
         <v>6</v>
       </c>
       <c r="Y14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AA14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AD14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AE14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AF14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AH14">
         <v>2024378</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK14">
         <v>4</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>265</v>
-      </c>
-      <c r="AK14">
+      <c r="AL14" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM14">
         <v>59</v>
       </c>
-      <c r="AL14">
+      <c r="AN14">
         <v>118</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>1</v>
       </c>
-      <c r="AN14">
+      <c r="AP14">
         <v>4</v>
       </c>
-      <c r="AO14">
+      <c r="AQ14">
         <v>-2</v>
       </c>
-      <c r="AP14">
+      <c r="AR14">
         <v>25.03</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>47.64</v>
       </c>
-      <c r="AR14" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>288</v>
-      </c>
-      <c r="AW14">
+      <c r="AT14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>299</v>
+      </c>
+      <c r="AY14">
         <v>25.27</v>
       </c>
-      <c r="AX14">
+      <c r="AZ14">
         <v>22.77</v>
       </c>
-      <c r="AY14">
+      <c r="BA14">
         <v>23.41</v>
       </c>
-      <c r="AZ14">
+      <c r="BB14">
         <v>23.53</v>
       </c>
-      <c r="BC14">
+      <c r="BE14">
         <v>46.94</v>
       </c>
-      <c r="BD14">
+      <c r="BF14">
         <v>-0.027</v>
       </c>
-      <c r="BE14">
+      <c r="BG14">
         <v>46.913</v>
       </c>
-      <c r="BF14" t="s">
-        <v>299</v>
-      </c>
-      <c r="BG14">
+      <c r="BH14" t="s">
+        <v>310</v>
+      </c>
+      <c r="BI14">
         <v>2024317</v>
       </c>
-      <c r="BH14">
+      <c r="BJ14">
         <v>14</v>
       </c>
-      <c r="BI14" t="s">
-        <v>303</v>
-      </c>
-      <c r="BJ14">
+      <c r="BK14" t="s">
+        <v>314</v>
+      </c>
+      <c r="BL14">
         <v>49</v>
       </c>
-      <c r="BK14">
+      <c r="BM14">
         <v>125</v>
       </c>
-      <c r="BL14">
+      <c r="BN14">
         <v>-6</v>
       </c>
-      <c r="BM14">
+      <c r="BO14">
         <v>7</v>
       </c>
-      <c r="BN14">
+      <c r="BP14">
         <v>-5</v>
       </c>
-      <c r="BO14">
+      <c r="BQ14">
         <v>24.67</v>
       </c>
-      <c r="BP14">
+      <c r="BR14">
         <v>48.32</v>
       </c>
-      <c r="BQ14" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>314</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>324</v>
-      </c>
-      <c r="BV14">
+      <c r="BS14" t="s">
+        <v>319</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>325</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>335</v>
+      </c>
+      <c r="BX14">
         <v>24.67</v>
       </c>
-      <c r="BW14">
+      <c r="BY14">
         <v>23.65</v>
       </c>
-      <c r="BX14">
+      <c r="BZ14">
         <v>23.52</v>
       </c>
-      <c r="BY14">
+      <c r="CA14">
         <v>24.15</v>
       </c>
-      <c r="CB14">
+      <c r="CD14">
         <v>47.67</v>
       </c>
-      <c r="CC14">
+      <c r="CE14">
         <v>-0.195</v>
       </c>
-      <c r="CD14">
+      <c r="CF14">
         <v>47.475</v>
       </c>
-      <c r="CE14" t="s">
-        <v>332</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>121</v>
-      </c>
       <c r="CG14" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="CH14" t="s">
-        <v>344</v>
+        <v>123</v>
       </c>
       <c r="CI14" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="CJ14" t="s">
         <v>355</v>
       </c>
       <c r="CK14" t="s">
-        <v>320</v>
-      </c>
-      <c r="CL14">
+        <v>343</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>366</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>331</v>
+      </c>
+      <c r="CN14">
         <v>94.95</v>
       </c>
-      <c r="CM14">
+      <c r="CO14">
         <v>95.38</v>
       </c>
     </row>
-    <row r="15" spans="1:91">
+    <row r="15" spans="1:93">
       <c r="A15" s="2">
         <v>45704</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>1600</v>
@@ -4609,147 +4720,153 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L15">
         <v>119</v>
       </c>
       <c r="M15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O15">
         <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R15">
         <v>82</v>
       </c>
       <c r="S15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="U15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="W15">
         <v>4</v>
       </c>
       <c r="Y15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AA15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AB15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AC15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AE15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AH15">
         <v>2024208</v>
       </c>
-      <c r="AI15">
-        <v>11</v>
+      <c r="AI15" t="s">
+        <v>263</v>
       </c>
       <c r="AJ15" t="s">
         <v>264</v>
       </c>
       <c r="AK15">
+        <v>11</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM15">
         <v>27</v>
       </c>
-      <c r="AL15">
+      <c r="AN15">
         <v>115</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>4</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>7</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <v>1</v>
       </c>
-      <c r="AP15">
+      <c r="AR15">
         <v>24.33</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>47.23</v>
       </c>
-      <c r="AR15" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>289</v>
-      </c>
-      <c r="AW15">
+      <c r="AT15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY15">
         <v>24.57</v>
       </c>
-      <c r="AX15">
+      <c r="AZ15">
         <v>22.98</v>
       </c>
-      <c r="AY15">
+      <c r="BA15">
         <v>23.25</v>
       </c>
-      <c r="AZ15">
+      <c r="BB15">
         <v>23.46</v>
       </c>
-      <c r="BC15">
+      <c r="BE15">
         <v>46.71</v>
       </c>
-      <c r="BD15">
+      <c r="BF15">
         <v>0.081</v>
       </c>
-      <c r="BE15">
+      <c r="BG15">
         <v>46.791</v>
       </c>
-      <c r="BF15" t="s">
-        <v>300</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>122</v>
-      </c>
-      <c r="CG15" t="s">
-        <v>300</v>
+      <c r="BH15" t="s">
+        <v>311</v>
       </c>
       <c r="CH15" t="s">
-        <v>345</v>
-      </c>
-      <c r="CK15" t="s">
-        <v>300</v>
-      </c>
-      <c r="CL15">
+        <v>124</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>311</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>356</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>311</v>
+      </c>
+      <c r="CN15">
         <v>94.34</v>
       </c>
-      <c r="CM15">
+      <c r="CO15">
         <v>94.34</v>
       </c>
     </row>
